--- a/data/trans_orig/P1428-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>43060</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30844</v>
+        <v>31848</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56174</v>
+        <v>55924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06204572427836803</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04444277182078467</v>
+        <v>0.04588919312007094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08094047317233459</v>
+        <v>0.08058131588419858</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -765,19 +765,19 @@
         <v>131332</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111810</v>
+        <v>111024</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>152672</v>
+        <v>149777</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1907923847799613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1624322211451007</v>
+        <v>0.1612895063417844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2217931483192079</v>
+        <v>0.2175885031806505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>177</v>
@@ -786,19 +786,19 @@
         <v>174393</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152151</v>
+        <v>149935</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199810</v>
+        <v>198000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1261554308493273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1100659914163382</v>
+        <v>0.1084626125628524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.144542623510926</v>
+        <v>0.1432328390233225</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>650952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>637838</v>
+        <v>638088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>663168</v>
+        <v>662164</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9379542757216319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9190595268276652</v>
+        <v>0.9194186841158014</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9555572281792153</v>
+        <v>0.954110806879929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>563</v>
@@ -836,19 +836,19 @@
         <v>557019</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>535679</v>
+        <v>538574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>576541</v>
+        <v>577327</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8092076152200387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.778206851680792</v>
+        <v>0.7824114968193494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8375677788548992</v>
+        <v>0.8387104936582156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1202</v>
@@ -857,19 +857,19 @@
         <v>1207970</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1182553</v>
+        <v>1184363</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1230212</v>
+        <v>1232428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8738445691506727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8554573764890739</v>
+        <v>0.8567671609766775</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8899340085836617</v>
+        <v>0.8915373874371476</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>73532</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57073</v>
+        <v>57295</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92585</v>
+        <v>88583</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07645272893572427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05934012923044889</v>
+        <v>0.05957009543539099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09626208959343187</v>
+        <v>0.09210099540673626</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>154</v>
@@ -982,19 +982,19 @@
         <v>166309</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>144175</v>
+        <v>144196</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>194246</v>
+        <v>191393</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1717367695264441</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1488802770841651</v>
+        <v>0.1489024445968875</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2005862732085707</v>
+        <v>0.1976399615775801</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>226</v>
@@ -1003,19 +1003,19 @@
         <v>239841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>211610</v>
+        <v>209505</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>271707</v>
+        <v>270707</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1242574823611645</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1096317372067131</v>
+        <v>0.108540709451914</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1407666608387336</v>
+        <v>0.1402488820143326</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>888268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>869215</v>
+        <v>873217</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>904727</v>
+        <v>904505</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9235472710642757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9037379104065681</v>
+        <v>0.9078990045932638</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9406598707695506</v>
+        <v>0.940429904564609</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>754</v>
@@ -1053,19 +1053,19 @@
         <v>802084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>774147</v>
+        <v>777000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>824218</v>
+        <v>824197</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8282632304735559</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7994137267914293</v>
+        <v>0.8023600384224203</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8511197229158347</v>
+        <v>0.8510975554031126</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1578</v>
@@ -1074,19 +1074,19 @@
         <v>1690352</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1658486</v>
+        <v>1659486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1718583</v>
+        <v>1720688</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8757425176388355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8592333391612667</v>
+        <v>0.8597511179856673</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8903682627932871</v>
+        <v>0.8914592905480858</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>47483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36239</v>
+        <v>35409</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63695</v>
+        <v>62643</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06998153613408338</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05341015458013098</v>
+        <v>0.05218585891671307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.093874393441961</v>
+        <v>0.09232383500182594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>123</v>
@@ -1199,19 +1199,19 @@
         <v>122260</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103664</v>
+        <v>102778</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>144950</v>
+        <v>142130</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1787846029756326</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1515904165695</v>
+        <v>0.1502947480057727</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2119648401414374</v>
+        <v>0.2078414098870406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -1220,19 +1220,19 @@
         <v>169743</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>146991</v>
+        <v>147572</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>195415</v>
+        <v>196675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.124595992503761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1078953835328557</v>
+        <v>0.1083218393133619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1434396727508657</v>
+        <v>0.1443643523083264</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>631026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>614814</v>
+        <v>615866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>642270</v>
+        <v>643100</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9300184638659166</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9061256065580408</v>
+        <v>0.9076761649981741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9465898454198697</v>
+        <v>0.9478141410832869</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>573</v>
@@ -1270,19 +1270,19 @@
         <v>561581</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>538891</v>
+        <v>541711</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>580177</v>
+        <v>581063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8212153970243674</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7880351598585627</v>
+        <v>0.7921585901129595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8484095834305</v>
+        <v>0.8497052519942274</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1165</v>
@@ -1291,19 +1291,19 @@
         <v>1192607</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1166935</v>
+        <v>1165675</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1215359</v>
+        <v>1214778</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8754040074962389</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8565603272491342</v>
+        <v>0.8556356476916737</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8921046164671443</v>
+        <v>0.8916781606866382</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>72482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58311</v>
+        <v>59061</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89226</v>
+        <v>90235</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07692649838848523</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06188651175166576</v>
+        <v>0.06268249105117128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09469779081708743</v>
+        <v>0.0957678934848543</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -1416,19 +1416,19 @@
         <v>176652</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154235</v>
+        <v>153344</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>202311</v>
+        <v>202824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1700849307160684</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1485008040146621</v>
+        <v>0.1476427439690809</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1947895930232556</v>
+        <v>0.195283584074781</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -1437,19 +1437,19 @@
         <v>249134</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>220086</v>
+        <v>218945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>280233</v>
+        <v>280065</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1257723184510404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1111077608117992</v>
+        <v>0.1105318431640631</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1414723706665544</v>
+        <v>0.1413871743031912</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>869740</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>852996</v>
+        <v>851987</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>883911</v>
+        <v>883161</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9230735016115148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9053022091829127</v>
+        <v>0.9042321065151455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9381134882483344</v>
+        <v>0.9373175089488284</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>830</v>
@@ -1487,19 +1487,19 @@
         <v>861960</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>836301</v>
+        <v>835788</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>884377</v>
+        <v>885268</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8299150692839316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8052104069767443</v>
+        <v>0.8047164159252188</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8514991959853373</v>
+        <v>0.8523572560309191</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1744</v>
@@ -1508,19 +1508,19 @@
         <v>1731700</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1700601</v>
+        <v>1700769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1760748</v>
+        <v>1761889</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8742276815489596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8585276293334456</v>
+        <v>0.8586128256968089</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8888922391882008</v>
+        <v>0.8894681568359368</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>236558</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>209927</v>
+        <v>210127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>267546</v>
+        <v>267896</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07219732892719168</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06406954489756009</v>
+        <v>0.06413061285923058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08165505232821464</v>
+        <v>0.08176167258760013</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>577</v>
@@ -1633,19 +1633,19 @@
         <v>596553</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>550395</v>
+        <v>552080</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>642059</v>
+        <v>639371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1765370015432699</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1628775106410049</v>
+        <v>0.1633761469108818</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1900033468796852</v>
+        <v>0.1892079933498254</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>822</v>
@@ -1654,19 +1654,19 @@
         <v>833111</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>779808</v>
+        <v>784316</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>882779</v>
+        <v>886734</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1251718002122634</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1171632283447291</v>
+        <v>0.1178405539583509</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1326341441417195</v>
+        <v>0.1332283780522775</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3039985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3008997</v>
+        <v>3008647</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3066616</v>
+        <v>3066416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9278026710728083</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9183449476717856</v>
+        <v>0.9182383274123997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9359304551024399</v>
+        <v>0.9358693871407694</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2720</v>
@@ -1704,19 +1704,19 @@
         <v>2782644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2737138</v>
+        <v>2739826</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2828802</v>
+        <v>2827117</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8234629984567301</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8099966531203148</v>
+        <v>0.8107920066501748</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8371224893589951</v>
+        <v>0.8366238530891182</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5689</v>
@@ -1725,19 +1725,19 @@
         <v>5822630</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5772962</v>
+        <v>5769007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5875933</v>
+        <v>5871425</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8748281997877366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8673658558582805</v>
+        <v>0.8667716219477226</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8828367716552709</v>
+        <v>0.8821594460416493</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>41590</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29910</v>
+        <v>29517</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56131</v>
+        <v>57065</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05912067270185087</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04251845311427955</v>
+        <v>0.04195850532380751</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07979186275440318</v>
+        <v>0.0811198760170192</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -2090,19 +2090,19 @@
         <v>95240</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78275</v>
+        <v>78040</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114368</v>
+        <v>117176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1366336058139413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1122952994975655</v>
+        <v>0.1119581214102773</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1640743519390478</v>
+        <v>0.1681021620577877</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -2111,19 +2111,19 @@
         <v>136830</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114917</v>
+        <v>116266</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>162236</v>
+        <v>160693</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09769950727406548</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08205294842476543</v>
+        <v>0.08301623894488888</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1158401806885768</v>
+        <v>0.1147380632600014</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>661879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>647338</v>
+        <v>646404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673559</v>
+        <v>673952</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9408793272981492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9202081372455968</v>
+        <v>0.9188801239829808</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9574815468857204</v>
+        <v>0.9580414946761925</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>564</v>
@@ -2161,19 +2161,19 @@
         <v>601810</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>582682</v>
+        <v>579874</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>618775</v>
+        <v>619010</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8633663941860586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8359256480609522</v>
+        <v>0.8318978379422125</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8877047005024343</v>
+        <v>0.8880418785897229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1199</v>
@@ -2182,19 +2182,19 @@
         <v>1263689</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1238283</v>
+        <v>1239826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1285602</v>
+        <v>1284253</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9023004927259345</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8841598193114233</v>
+        <v>0.8852619367399988</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9179470515752347</v>
+        <v>0.9169837610551113</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>64566</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48260</v>
+        <v>50407</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82436</v>
+        <v>80631</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06342785211426513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04740963885510753</v>
+        <v>0.04951863732598814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08098280469403783</v>
+        <v>0.07920960793777387</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -2307,19 +2307,19 @@
         <v>126924</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106523</v>
+        <v>106618</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>151196</v>
+        <v>150776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1233497551972011</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1035239088519366</v>
+        <v>0.1036163290014149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1469388465317193</v>
+        <v>0.1465307939475398</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>175</v>
@@ -2328,19 +2328,19 @@
         <v>191490</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>166014</v>
+        <v>163406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>220055</v>
+        <v>219035</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09355019551938855</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08110421743064103</v>
+        <v>0.07983026266191641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1075054373170353</v>
+        <v>0.1070070405774493</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>953381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>935511</v>
+        <v>937316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>969687</v>
+        <v>967540</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9365721478857348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9190171953059622</v>
+        <v>0.9207903920622261</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9525903611448929</v>
+        <v>0.950481362674012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>822</v>
@@ -2378,19 +2378,19 @@
         <v>902049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>877777</v>
+        <v>878197</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>922450</v>
+        <v>922355</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8766502448027989</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8530611534682806</v>
+        <v>0.8534692060524602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8964760911480634</v>
+        <v>0.8963836709985852</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1699</v>
@@ -2399,19 +2399,19 @@
         <v>1855431</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1826866</v>
+        <v>1827886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1880907</v>
+        <v>1883515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9064498044806114</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8924945626829648</v>
+        <v>0.8929929594225506</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9188957825693592</v>
+        <v>0.9201697373380836</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>26606</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17634</v>
+        <v>17142</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39604</v>
+        <v>41157</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03511754664049901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0232758043248994</v>
+        <v>0.0226265760569006</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05227439199361363</v>
+        <v>0.05432319308466756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -2524,19 +2524,19 @@
         <v>84143</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67794</v>
+        <v>68182</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105764</v>
+        <v>104992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1082673828795173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08723092149210479</v>
+        <v>0.0877300906744972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1360884417131207</v>
+        <v>0.135094444516178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -2545,19 +2545,19 @@
         <v>110748</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92584</v>
+        <v>91679</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135559</v>
+        <v>135036</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0721583666402702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06032357688342602</v>
+        <v>0.05973364103535726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08832364085975414</v>
+        <v>0.0879828497256368</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>731017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>718019</v>
+        <v>716466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>739989</v>
+        <v>740481</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.964882453359501</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9477256080063863</v>
+        <v>0.9456768069153324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9767241956751005</v>
+        <v>0.9773734239430995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>629</v>
@@ -2595,19 +2595,19 @@
         <v>693031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>671410</v>
+        <v>672182</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>709380</v>
+        <v>708992</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8917326171204827</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8639115582868794</v>
+        <v>0.8649055554838221</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9127690785078952</v>
+        <v>0.9122699093255029</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1295</v>
@@ -2616,19 +2616,19 @@
         <v>1424049</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1399238</v>
+        <v>1399761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1442213</v>
+        <v>1443118</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9278416333597298</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9116763591402463</v>
+        <v>0.9120171502743631</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9396764231165742</v>
+        <v>0.9402663589646427</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>43542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31112</v>
+        <v>31978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59187</v>
+        <v>60890</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04594313391597897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03282752734596307</v>
+        <v>0.03374100616156241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06245030552010714</v>
+        <v>0.06424712011134284</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -2741,19 +2741,19 @@
         <v>134370</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>113548</v>
+        <v>112156</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158878</v>
+        <v>156649</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1277406011086289</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1079452106046117</v>
+        <v>0.106621861934232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1510388737206643</v>
+        <v>0.1489200792154081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -2762,19 +2762,19 @@
         <v>177913</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>152899</v>
+        <v>152427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>205684</v>
+        <v>203544</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08897229009058158</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07646333551621637</v>
+        <v>0.07622703275030281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1028605082666501</v>
+        <v>0.1017901120772255</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>904197</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>888552</v>
+        <v>886849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>916627</v>
+        <v>915761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9540568660840211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9375496944798928</v>
+        <v>0.935752879888657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9671724726540368</v>
+        <v>0.9662589938384375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>876</v>
@@ -2812,19 +2812,19 @@
         <v>917531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>893023</v>
+        <v>895252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>938353</v>
+        <v>939745</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8722593988913711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8489611262793358</v>
+        <v>0.8510799207845919</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8920547893953884</v>
+        <v>0.8933781380657682</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1747</v>
@@ -2833,19 +2833,19 @@
         <v>1821727</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1793956</v>
+        <v>1796096</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1846741</v>
+        <v>1847213</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9110277099094184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8971394917333498</v>
+        <v>0.8982098879227745</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9235366644837836</v>
+        <v>0.923772967249697</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>176304</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153784</v>
+        <v>152478</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>205668</v>
+        <v>207328</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05144882674475209</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04487705761826451</v>
+        <v>0.04449598293492777</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06001787289483951</v>
+        <v>0.06050222761378406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>405</v>
@@ -2958,19 +2958,19 @@
         <v>440677</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>402701</v>
+        <v>401377</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>482301</v>
+        <v>482939</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1239563813994062</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1132741397368291</v>
+        <v>0.1129019157854907</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1356644943123643</v>
+        <v>0.1358439432947194</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>565</v>
@@ -2979,19 +2979,19 @@
         <v>616981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>570186</v>
+        <v>565300</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>668937</v>
+        <v>667606</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08836891046857921</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08166660035326381</v>
+        <v>0.08096680374312565</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09581043492241495</v>
+        <v>0.09561979899922025</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3250475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3221111</v>
+        <v>3219451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3272995</v>
+        <v>3274301</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.948551173255248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9399821271051605</v>
+        <v>0.9394977723862159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9551229423817355</v>
+        <v>0.9555040170650722</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2891</v>
@@ -3029,19 +3029,19 @@
         <v>3114421</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3072797</v>
+        <v>3072159</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3152397</v>
+        <v>3153721</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8760436186005938</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8643355056876357</v>
+        <v>0.8641560567052804</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.886725860263171</v>
+        <v>0.8870980842145092</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5940</v>
@@ -3050,19 +3050,19 @@
         <v>6364896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6312940</v>
+        <v>6314271</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6411691</v>
+        <v>6416577</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9116310895314208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9041895650775851</v>
+        <v>0.9043802010007798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9183333996467362</v>
+        <v>0.9190331962568744</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>29624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20695</v>
+        <v>20669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42077</v>
+        <v>42243</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04390050220452747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03066905197516474</v>
+        <v>0.03062989490637124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06235424339678929</v>
+        <v>0.06260015130912237</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -3415,19 +3415,19 @@
         <v>81359</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65363</v>
+        <v>64704</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99855</v>
+        <v>101113</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1209194626026912</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09714469866037626</v>
+        <v>0.09616613550084538</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1484077490852799</v>
+        <v>0.1502777065513317</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -3436,19 +3436,19 @@
         <v>110983</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91781</v>
+        <v>93175</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>131176</v>
+        <v>134488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08235394576040669</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0681049163604777</v>
+        <v>0.06913954959411089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09733787893508572</v>
+        <v>0.09979543828896086</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>645176</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>632723</v>
+        <v>632557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>654105</v>
+        <v>654131</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9560994977954725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9376457566032106</v>
+        <v>0.9373998486908777</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9693309480248352</v>
+        <v>0.9693701050936288</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>590</v>
@@ -3486,19 +3486,19 @@
         <v>591480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>572984</v>
+        <v>571726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>607476</v>
+        <v>608135</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8790805373973087</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8515922509147201</v>
+        <v>0.8497222934486687</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.902855301339624</v>
+        <v>0.9038338644991547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1213</v>
@@ -3507,19 +3507,19 @@
         <v>1236656</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1216463</v>
+        <v>1213151</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1255858</v>
+        <v>1254464</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9176460542395933</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9026621210649139</v>
+        <v>0.9002045617110391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9318950836395218</v>
+        <v>0.9308604504058891</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>34613</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25000</v>
+        <v>25596</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48859</v>
+        <v>48299</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03385322661829487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02445169013800621</v>
+        <v>0.02503446908127973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04778755863273636</v>
+        <v>0.04723912753529969</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>97</v>
@@ -3632,19 +3632,19 @@
         <v>111179</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91714</v>
+        <v>91582</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>133860</v>
+        <v>135475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1066039357241189</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08793981747857585</v>
+        <v>0.08781402959254568</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1283519753042937</v>
+        <v>0.1299004951451484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -3653,19 +3653,19 @@
         <v>145791</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120637</v>
+        <v>123710</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169556</v>
+        <v>172071</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07058931545296035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05841009526416231</v>
+        <v>0.0598982398709962</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08209592372159924</v>
+        <v>0.08331338027024771</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>987818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>973572</v>
+        <v>974132</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>997431</v>
+        <v>996835</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9661467733817052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9522124413672636</v>
+        <v>0.9527608724647003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9755483098619938</v>
+        <v>0.9749655309187202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>880</v>
@@ -3703,19 +3703,19 @@
         <v>931734</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>909053</v>
+        <v>907438</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>951199</v>
+        <v>951331</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.893396064275881</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8716480246957061</v>
+        <v>0.8700995048548515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9120601825214241</v>
+        <v>0.9121859704074543</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1796</v>
@@ -3724,19 +3724,19 @@
         <v>1919553</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1895788</v>
+        <v>1893273</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1944707</v>
+        <v>1941634</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9294106845470397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9179040762784008</v>
+        <v>0.9166866197297523</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9415899047358377</v>
+        <v>0.9401017601290039</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>29169</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19915</v>
+        <v>19871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41987</v>
+        <v>42167</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03840321677071402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02621997303313344</v>
+        <v>0.02616200429036047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05527882376336365</v>
+        <v>0.05551548440109196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -3849,19 +3849,19 @@
         <v>59320</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45929</v>
+        <v>45335</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75535</v>
+        <v>76248</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07556586358803123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05850747419023285</v>
+        <v>0.05775056990455094</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09622168534022082</v>
+        <v>0.09712953445329743</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -3870,19 +3870,19 @@
         <v>88489</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69822</v>
+        <v>71235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109913</v>
+        <v>109071</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05729081129115712</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04520527387339934</v>
+        <v>0.04611989548758295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07116099887145401</v>
+        <v>0.07061592178400111</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>730383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>717565</v>
+        <v>717385</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>739637</v>
+        <v>739681</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.961596783229286</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9447211762366362</v>
+        <v>0.944484515598908</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9737800269668664</v>
+        <v>0.9738379957096395</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -3920,19 +3920,19 @@
         <v>725691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>709476</v>
+        <v>708763</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>739082</v>
+        <v>739676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9244341364119688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9037783146597783</v>
+        <v>0.9028704655467025</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9414925258097667</v>
+        <v>0.9422494300954489</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1352</v>
@@ -3941,19 +3941,19 @@
         <v>1456074</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1434650</v>
+        <v>1435492</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1474741</v>
+        <v>1473328</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9427091887088429</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9288390011285459</v>
+        <v>0.929384078215999</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9547947261266007</v>
+        <v>0.9538801045124173</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>28539</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18969</v>
+        <v>18723</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42256</v>
+        <v>42149</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03043931338746663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02023181886500961</v>
+        <v>0.01996970375020161</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04506950145682501</v>
+        <v>0.0449562073855416</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -4066,19 +4066,19 @@
         <v>80225</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62305</v>
+        <v>62253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100587</v>
+        <v>100236</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07686019823826837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05969164070686055</v>
+        <v>0.05964153973415613</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09636830289654555</v>
+        <v>0.09603215092973656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -4087,19 +4087,19 @@
         <v>108764</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88067</v>
+        <v>88456</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>130015</v>
+        <v>130442</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05489397454630177</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04444814034136617</v>
+        <v>0.0446443922910599</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06561939719233909</v>
+        <v>0.06583480099357976</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>909028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>895311</v>
+        <v>895418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>918598</v>
+        <v>918844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9695606866125334</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9549304985431751</v>
+        <v>0.9550437926144588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9797681811349904</v>
+        <v>0.9800302962497986</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>892</v>
@@ -4137,19 +4137,19 @@
         <v>963554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>943192</v>
+        <v>943543</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>981474</v>
+        <v>981526</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9231398017617316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9036316971034544</v>
+        <v>0.9039678490702637</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9403083592931392</v>
+        <v>0.940358460265844</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1796</v>
@@ -4158,19 +4158,19 @@
         <v>1872582</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1851331</v>
+        <v>1850904</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1893279</v>
+        <v>1892890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9451060254536983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9343806028076609</v>
+        <v>0.9341651990064201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9555518596586338</v>
+        <v>0.95535560770894</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>121945</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101387</v>
+        <v>101593</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145228</v>
+        <v>146433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03592581320830929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02986940890457046</v>
+        <v>0.02993002666703197</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0427852814039725</v>
+        <v>0.04314023014249393</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>292</v>
@@ -4283,19 +4283,19 @@
         <v>332083</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>295530</v>
+        <v>295609</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>370184</v>
+        <v>368469</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09368856557978152</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0833759393405461</v>
+        <v>0.08339831635429354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1044377925977129</v>
+        <v>0.103953816694014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>412</v>
@@ -4304,19 +4304,19 @@
         <v>454028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>413353</v>
+        <v>412400</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>499143</v>
+        <v>498851</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0654323239974996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05957044010146354</v>
+        <v>0.05943313376989615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07193415597012597</v>
+        <v>0.07189207717087452</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3272405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3249122</v>
+        <v>3247917</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3292963</v>
+        <v>3292757</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9640741867916908</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9572147185960275</v>
+        <v>0.9568597698575062</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9701305910954295</v>
+        <v>0.9700699733329681</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3046</v>
@@ -4354,19 +4354,19 @@
         <v>3212459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3174358</v>
+        <v>3176073</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3249012</v>
+        <v>3248933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9063114344202184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8955622074022871</v>
+        <v>0.8960461833059862</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9166240606594539</v>
+        <v>0.9166016836457069</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6157</v>
@@ -4375,19 +4375,19 @@
         <v>6484864</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6439749</v>
+        <v>6440041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6525539</v>
+        <v>6526492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9345676760025003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9280658440298737</v>
+        <v>0.9281079228291254</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9404295598985365</v>
+        <v>0.9405668662301038</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>37798</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28034</v>
+        <v>28483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49057</v>
+        <v>50860</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05480780864667409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04064986164052618</v>
+        <v>0.04130091119657094</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0711333156926349</v>
+        <v>0.07374682407405894</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>284</v>
@@ -4740,19 +4740,19 @@
         <v>134225</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118843</v>
+        <v>119587</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150438</v>
+        <v>150639</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1834883499495436</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1624609167476063</v>
+        <v>0.1634780267130645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2056514027548426</v>
+        <v>0.2059270646551497</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>339</v>
@@ -4761,19 +4761,19 @@
         <v>172023</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>153272</v>
+        <v>151704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192449</v>
+        <v>192319</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1210434060018175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1078489461429875</v>
+        <v>0.1067457857761395</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1354159583969983</v>
+        <v>0.1353239730907003</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>651856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>640597</v>
+        <v>638794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>661620</v>
+        <v>661171</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9451921913533259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9288666843073652</v>
+        <v>0.9262531759259413</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9593501383594738</v>
+        <v>0.958699088803429</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>952</v>
@@ -4811,19 +4811,19 @@
         <v>597293</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>581080</v>
+        <v>580879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>612675</v>
+        <v>611931</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8165116500504566</v>
+        <v>0.8165116500504565</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7943485972451575</v>
+        <v>0.7940729353448507</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8375390832523937</v>
+        <v>0.8365219732869353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1626</v>
@@ -4832,19 +4832,19 @@
         <v>1249149</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1228723</v>
+        <v>1228853</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1267900</v>
+        <v>1269468</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8789565939981826</v>
+        <v>0.8789565939981824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8645840416030018</v>
+        <v>0.8646760269092997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8921510538570125</v>
+        <v>0.8932542142238605</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>47270</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36049</v>
+        <v>35524</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59932</v>
+        <v>61386</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04516478320315234</v>
+        <v>0.04516478320315233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03444366155539072</v>
+        <v>0.03394263540971262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05726383328916391</v>
+        <v>0.05865285691758796</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>253</v>
@@ -4957,19 +4957,19 @@
         <v>142319</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125269</v>
+        <v>126500</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160270</v>
+        <v>163025</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1337512418434089</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1177273798460709</v>
+        <v>0.1188839428334558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1506209782467696</v>
+        <v>0.1532103426290215</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>316</v>
@@ -4978,19 +4978,19 @@
         <v>189589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168653</v>
+        <v>168845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>212312</v>
+        <v>210895</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08982438515105297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07990517751153278</v>
+        <v>0.07999607429698816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1005900863956934</v>
+        <v>0.09991892497679995</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>999332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>986670</v>
+        <v>985216</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1010553</v>
+        <v>1011078</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9548352167968479</v>
+        <v>0.9548352167968476</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.942736166710836</v>
+        <v>0.941347143082412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9655563384446093</v>
+        <v>0.9660573645902872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1253</v>
@@ -5028,19 +5028,19 @@
         <v>921741</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>903790</v>
+        <v>901035</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>938791</v>
+        <v>937560</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8662487581565912</v>
+        <v>0.866248758156591</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8493790217532304</v>
+        <v>0.8467896573709786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8822726201539289</v>
+        <v>0.8811160571665442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2152</v>
@@ -5049,19 +5049,19 @@
         <v>1921073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1898350</v>
+        <v>1899767</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1942009</v>
+        <v>1941817</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.910175614848947</v>
+        <v>0.9101756148489472</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8994099136043061</v>
+        <v>0.9000810750231997</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9200948224884669</v>
+        <v>0.9200039257030117</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>40433</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29481</v>
+        <v>30290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52988</v>
+        <v>53881</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05046456180312416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03679503409910136</v>
+        <v>0.03780549506430571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06613412392249003</v>
+        <v>0.06724941915225828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>137</v>
@@ -5174,19 +5174,19 @@
         <v>87421</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73156</v>
+        <v>74079</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101480</v>
+        <v>101786</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1085224378669993</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09081437658523739</v>
+        <v>0.09196076154345337</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1259759155046525</v>
+        <v>0.1263552378107673</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>180</v>
@@ -5195,19 +5195,19 @@
         <v>127854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112093</v>
+        <v>107664</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146672</v>
+        <v>147799</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07957182779116721</v>
+        <v>0.07957182779116724</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06976296410132496</v>
+        <v>0.06700628324795183</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09128350729784086</v>
+        <v>0.0919850232660247</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>760784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748229</v>
+        <v>747336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>771736</v>
+        <v>770927</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9495354381968759</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9338658760775113</v>
+        <v>0.9327505808477417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9632049659008989</v>
+        <v>0.9621945049356941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>901</v>
@@ -5245,19 +5245,19 @@
         <v>718132</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>704073</v>
+        <v>703767</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>732397</v>
+        <v>731474</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8914775621330008</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8740240844953476</v>
+        <v>0.8736447621892327</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9091856234147627</v>
+        <v>0.9080392384565467</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1532</v>
@@ -5266,19 +5266,19 @@
         <v>1478916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1460098</v>
+        <v>1458971</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1494677</v>
+        <v>1499106</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9204281722088327</v>
+        <v>0.9204281722088328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9087164927021589</v>
+        <v>0.9080149767339755</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9302370358986751</v>
+        <v>0.9329937167520483</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>59606</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46499</v>
+        <v>46972</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72973</v>
+        <v>73576</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06039598079428057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0471152279122473</v>
+        <v>0.04759471883479154</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0739403156047585</v>
+        <v>0.07455158473480228</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>284</v>
@@ -5391,19 +5391,19 @@
         <v>170803</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>153195</v>
+        <v>152954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>192283</v>
+        <v>191136</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1528874085334603</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1371263352671171</v>
+        <v>0.1369111852698786</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1721147420962561</v>
+        <v>0.171087811278846</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>363</v>
@@ -5412,19 +5412,19 @@
         <v>230408</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>206486</v>
+        <v>205777</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>255129</v>
+        <v>254165</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1095046952397822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0981353947775979</v>
+        <v>0.09779846096224296</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1212536161161565</v>
+        <v>0.1207955479860287</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>927311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>913944</v>
+        <v>913341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>940418</v>
+        <v>939945</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9396040192057195</v>
+        <v>0.9396040192057193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9260596843952417</v>
+        <v>0.9254484152651982</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9528847720877528</v>
+        <v>0.9524052811652084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1275</v>
@@ -5462,19 +5462,19 @@
         <v>946376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>924896</v>
+        <v>926043</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>963984</v>
+        <v>964225</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8471125914665398</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8278852579037438</v>
+        <v>0.8289121887211538</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8628736647328827</v>
+        <v>0.8630888147301203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2199</v>
@@ -5483,19 +5483,19 @@
         <v>1873688</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1848967</v>
+        <v>1849931</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1897610</v>
+        <v>1898319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8904953047602179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8787463838838435</v>
+        <v>0.879204452013971</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9018646052224022</v>
+        <v>0.902201539037757</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>185107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160652</v>
+        <v>163643</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211147</v>
+        <v>212279</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0525216739642634</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04558287234937346</v>
+        <v>0.04643145361170254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05991011374101578</v>
+        <v>0.06023141494921708</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>958</v>
@@ -5608,19 +5608,19 @@
         <v>534768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>501734</v>
+        <v>505320</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>568379</v>
+        <v>574227</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1438200611620118</v>
+        <v>0.1438200611620119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1349359390395074</v>
+        <v>0.1359005572384633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1528594655681188</v>
+        <v>0.1544323734455302</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1198</v>
@@ -5629,19 +5629,19 @@
         <v>719874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>677751</v>
+        <v>679962</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>761500</v>
+        <v>763919</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09939310332200819</v>
+        <v>0.09939310332200822</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09357717831148313</v>
+        <v>0.09388245331345849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1051403342809832</v>
+        <v>0.1054743669754317</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3339283</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3313243</v>
+        <v>3312111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3363738</v>
+        <v>3360747</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9474783260357367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9400898862589843</v>
+        <v>0.9397685850507831</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9544171276506265</v>
+        <v>0.9535685463882975</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4381</v>
@@ -5679,19 +5679,19 @@
         <v>3183542</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3149931</v>
+        <v>3144083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3216576</v>
+        <v>3212990</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.856179938837988</v>
+        <v>0.8561799388379882</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.847140534431881</v>
+        <v>0.8455676265544697</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8650640609604926</v>
+        <v>0.8640994427615362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7509</v>
@@ -5700,19 +5700,19 @@
         <v>6522826</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6481200</v>
+        <v>6478781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6564949</v>
+        <v>6562738</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9006068966779918</v>
+        <v>0.9006068966779919</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8948596657190167</v>
+        <v>0.8945256330245681</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9064228216885167</v>
+        <v>0.9061175466865412</v>
       </c>
     </row>
     <row r="18">
